--- a/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/2020_AcidDigestion_EDI.xlsx
+++ b/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/2020_AcidDigestion_EDI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecewood/Documents/GitHub/Reservoirs/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236BE89E-3DF7-064E-9B0A-ADB6E2745D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40C7897-027D-684E-873E-C57AAE05888F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{0F3537B5-2E49-4F72-9B18-9B604E93E660}"/>
   </bookViews>
@@ -1336,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F04EB6-5C90-7F4D-9D5B-F2E9167D2079}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A70"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/2020_AcidDigestion_EDI.xlsx
+++ b/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/2020_AcidDigestion_EDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecewood/Documents/GitHub/Reservoirs/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40C7897-027D-684E-873E-C57AAE05888F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664F4D58-B37C-0B4F-8EE9-8291F2C7D2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{0F3537B5-2E49-4F72-9B18-9B604E93E660}"/>
   </bookViews>
@@ -801,18 +801,12 @@
     <t>7_14Oct20</t>
   </si>
   <si>
-    <t>8_14Oct21</t>
-  </si>
-  <si>
     <t>5_26Oct20</t>
   </si>
   <si>
     <t>7_26Oct20</t>
   </si>
   <si>
-    <t>8_26Oct21</t>
-  </si>
-  <si>
     <t>9_2</t>
   </si>
   <si>
@@ -931,6 +925,12 @@
   </si>
   <si>
     <t>8_16Sep20</t>
+  </si>
+  <si>
+    <t>8_14Oct20</t>
+  </si>
+  <si>
+    <t>8_26Oct20</t>
   </si>
 </sst>
 </file>
@@ -1336,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F04EB6-5C90-7F4D-9D5B-F2E9167D2079}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>124</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>125</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>126</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>127</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>3</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>4</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>157</v>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>158</v>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>159</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>160</v>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>161</v>
@@ -2514,7 +2514,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>162</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>163</v>
@@ -2578,7 +2578,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>164</v>
@@ -2610,7 +2610,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>165</v>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>166</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>167</v>
@@ -2706,7 +2706,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>168</v>
@@ -2738,7 +2738,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>169</v>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>170</v>
@@ -2802,7 +2802,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>171</v>
@@ -2834,7 +2834,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>172</v>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>173</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>174</v>
@@ -2930,7 +2930,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>175</v>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>176</v>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>177</v>
@@ -3026,7 +3026,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>178</v>
@@ -3058,7 +3058,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>179</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>180</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>181</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>182</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>183</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>184</v>
@@ -3244,7 +3244,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>185</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>186</v>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>187</v>
@@ -3340,7 +3340,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>188</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>189</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>190</v>
@@ -3436,7 +3436,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>191</v>
@@ -3468,7 +3468,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>192</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>3</v>
@@ -3520,7 +3520,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>4</v>
